--- a/Shiny/Dati/Menon_1996_2^5-1.xlsx
+++ b/Shiny/Dati/Menon_1996_2^5-1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1EA57-1E24-433A-B544-17A1BE50D0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84E5E5-75A1-48B9-841C-567E22007C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7562D30-DDF5-4AF4-8226-892B9FCE6C6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7562D30-DDF5-4AF4-8226-892B9FCE6C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Menon 1996 FrFD 2^(5-1) V" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>CS (kP)</t>
-  </si>
-  <si>
-    <t>PS (µm)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>x1</t>
   </si>
@@ -56,6 +51,12 @@
   </si>
   <si>
     <t>x5</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -216,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -224,7 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -278,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -301,7 +299,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{B5A54AFE-9173-4F04-9978-D7D37129A3CC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -322,22 +320,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>342899</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81916</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A3CF3D-BB32-4F1E-A8F7-514F16594738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A12BC4-2B31-4CDF-B823-024DE8BBDF2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -345,8 +343,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="83820"/>
-          <a:ext cx="6217920" cy="4387216"/>
+          <a:off x="3143249" y="83820"/>
+          <a:ext cx="9991725" cy="4831080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,7 +636,7 @@
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Particle size (µm): dimensioni delle particelle</a:t>
+            <a:t>PS, Particle size (µm): dimensioni delle particelle</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -647,7 +645,7 @@
               <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Crushing strength (CS, kP): resistenza</a:t>
+            <a:t>CS, Crushing strength (kP): resistenza</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0">
@@ -690,6 +688,30 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Menon et al., Identifying fluid-bed parameters affecting product variability. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>International Journal of Pharmaceutics</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="it-IT" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -698,9 +720,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>A. Menon et al., International Journal of Pharmaceutics 140 (1996) 207-218</a:t>
-          </a:r>
-          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>140 (1996) 207-218</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100" i="0">
             <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -713,7 +746,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1012,42 +1045,42 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>-1</v>
       </c>
@@ -1070,7 +1103,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1093,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-1</v>
       </c>
@@ -1116,7 +1149,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1139,7 +1172,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -1162,7 +1195,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1185,7 +1218,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>-1</v>
       </c>
@@ -1208,7 +1241,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1231,7 +1264,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>-1</v>
       </c>
@@ -1254,7 +1287,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1277,7 +1310,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>-1</v>
       </c>
@@ -1300,7 +1333,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1323,7 +1356,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>-1</v>
       </c>
@@ -1346,7 +1379,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1369,7 +1402,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>-1</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -1415,14 +1448,14 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>0</v>
       </c>
@@ -1438,27 +1471,27 @@
       <c r="E19" s="19">
         <v>0</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>308.54000000000002</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>0</v>
       </c>
-      <c r="B20" s="21">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="B20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
         <v>0</v>
       </c>
       <c r="F20" s="15">
@@ -1468,20 +1501,20 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>0</v>
       </c>
-      <c r="B21" s="21">
-        <v>-1</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="B21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
         <v>0</v>
       </c>
       <c r="F21" s="15">
@@ -1491,20 +1524,20 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>0</v>
       </c>
-      <c r="B22" s="21">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
         <v>0</v>
       </c>
       <c r="F22" s="15">
@@ -1514,20 +1547,20 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>0</v>
       </c>
-      <c r="B23" s="21">
-        <v>1</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
         <v>0</v>
       </c>
       <c r="F23" s="15">
@@ -1537,20 +1570,578 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>0</v>
-      </c>
-      <c r="B24" s="24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>250.92</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F483F09-B22E-4817-ACB3-3DFDCF9502ED}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>189</v>
+      </c>
+      <c r="G2" s="4">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>93.75</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>212.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>212.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>76</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>125</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>351.25</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>534</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>275</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>219</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>153.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>752</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>374</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>478</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>0</v>
+      </c>
+      <c r="B19" s="18">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>308.54000000000002</v>
+      </c>
+      <c r="G19" s="26">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>285.75</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>317.63</v>
+      </c>
+      <c r="G21" s="4">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>210.08</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>170.21</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
         <v>0</v>
       </c>
       <c r="F24" s="16">
